--- a/DOWNLOADS/EDITAIS/U_930180_E_900732025_03-10-2025_09h00m/U_930180_E_900732025_03-10-2025_09h00m_master.xlsx
+++ b/DOWNLOADS/EDITAIS/U_930180_E_900732025_03-10-2025_09h00m/U_930180_E_900732025_03-10-2025_09h00m_master.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
   <si>
     <t>Nº</t>
   </si>
@@ -157,55 +157,7 @@
     <t>Caixa Som Caixa Som Potência: 10W, Voltagem: Usb 5v Ou Dc 5v.V, Aplicação: Sala De Aula, Características Adicionais: Especificações Alto Falante: 2x2.Conexão: Usb E P2, Resposta Freqüência: 200</t>
   </si>
   <si>
-    <t>Processador: 12º geração Intel® Core™ i7-12700 (12-Core, Cache de 25MB, 2.1GHz até 4.8GHz), ou geração superior; Sistema operacional: Windows 11 Pro, português — Brasil; Placa de vídeo: Intel® UHD Graphics 770; Memória: Memória de 16GB (1x16GB), DDR5, 4400MT/s; Expansível até 64GB; Armazenamento: SSD de 512GB PCle NVMe M.2; Microsoft Office: Ative seu Microsoft 365 para fazer um teste de 30 dias; Software de Segurança: Avaliação de 30 dias do McAfee Business Protection; Complete Care None; Teclado e Mouse Sem fio original da marca; Portas: Parte frontal: 2 portas USB 2.0 Type-A 1 porta USB 3.2 Type-A de 1º geração 1 porta USB 3.2 Type-C de 1º geração 1 entrada global do headset Parte traseira: 2 portas USB 2.0 Type-A com suporte para ligar/reativar 2 porta USB 3.2 Type-A de 1º geração 1 porta de saída de áudio/ 1 porta DisplayPort 1.4/1 porta Ethernet RJ45/ 1 porta HDMI 1.4b/ Nota: A resolução máxima suportada pela porta HDMI 1.4b é de 1920 x 1200./ Unidade óptica: Sem Optical Drive/ Slots: 1 slot SATA 3.0 para um disco rigido de 3,5 polegadas 1 slot PCIe x16/ 1 slot PCle x1* 1 slot M.2 2230 para cartão combinado Wi-Fi e Bluetooth/ 1 slot M.2 2230/2280 para unidade de estado sólido PCIe Dimensões: Altura: 29,00 cm Largura: 9,26 cm/ Profundidade: 29,28 cm/ Peso (mínimo): 4,02 kg/ Peso (máximo): 4,72 kg*/ Chassi: Material: Aço galvanizado por imersão a quente Cores: Malha preta com névoa azul Wireless: Placa de Rede local sem fio (WLAN) Realtek Wi-Fi 6 RTL8852BE taxa de transferência de até 1201 Mbps, Wi-Fi 6 (802.11ax) 2x2 e Rede local com fio (LAN) Ethernet RJ45 Gigabit 10/100/1000 Mbps | com Bluetooth®/ Energia: Fonte de alimentação interna Bronze de 180 W Garantia: Garantia on-site do fabricante do equipamento. período de garantia de 12 (doze) meses.</t>
-  </si>
-  <si>
-    <t>Tamanho da visualização diagonal 23,8"; Área de exibição predefinida (H x V) 527,04 mm x 296,46 mm (20,75" x 11,67"); Área:156.246,28 mm²(242,18 polegadas²); Tipo de painel: Tecnologia In-Plane Switching (IPS)/ Revestimento da tela do monitor/ Antirreflexo com resistência 3H; Resolução máxima predefinida1920 x 1080; Taxa de atualização: 100 Hz; Ângulo de visão: 178º vertical/178 horizontal; Distância entre pixels: 0,2745 mm x 0,2745 mm; Pixels por polegada (PPI): 92,53; Taxa de contraste: 1500:1 (típica); Taxa de proporção: 16:9; Tecnologia de retroiluminação Sistema LED com borda iluminada; Brilho: 250 cd/m² (típico); Tempo de resposta 5 ms cinza a cinza (modo rápido) 8 ms cinza a cinza (modo normal); Suporte a cores: Até 16,7 milhões de cores; Gama de cores: 99% de sRGB; TÜV Eye Comfort: Sim, 4 estrelas; Sem cintilação/ Sim; Conectividade 1 porta HDMI 1.4 (HDCP 1.4) (compatível com resolução Full HD de 1920 x 1080 a 100 Hz TMDS, como especificado no HDMI 1.4) 1 porta DP 1.2 (HDCP 1.4)/ 1 porta VGA 1  portaUSB 3.2 Type-B de 1º geração para upstream/ 3 portas USB 3.2 Type-A de 1º geração para downstream/ 1 porta USB 3.2 Type-C de 1º geração para downstream com PD de até 15 W (somente dados); Alto-falante integrado: Não; Power Delivery via USB: Sim, até 15 W via porta USB-C para downstream; Ajustes: Altura, inclinação, rotação e giro Altura: Até 150 mm (5,9")/ Inclinação: -5 /+21º Rotação: -45º/+45º / Giro: -90º/+90º; Compatibilidade com o Dell Display Manager: Sim, com o EasyArrange; Gerenciamento remoto de ativos: Sim; Tensão exigida: 100 VCA a 240 VCA/50 Hz ou 60 Hz + 3 Hz/1,5 A (típica); Consumo de energia (operacional) (típico): 0,3 W (modo desligado) 0,3 W (modo de espera)/ 11,7 W (modo ligado)/ 65 W (máx.)/ 12 W (Pon) / 38,4 kWh (TEC); Saída de áudio: Soundbar opcional (vendida separadamente); Segurança Slot de trava de segurança (com base no Kensington Security Slot””); Padrões de conformidade Monitor com certificação ENERGY STAR / EPEAT GOLD / EPEAT Climate+ / TCO Certified Displays TCO Certified Edge/ Compatível com RoHS Monitor sem BFR/PVC (exceto cabos externos) Vidro sem arsênico; painel sem mercúrio; Interface de montagem da tela plana VESA (100 mm x 100 mm); Faixa de temperatura Operacional: 0 ºC— 40 ºC(32 ºF- 104 ºF) Não operacional: -20 ºC- 60 ºC(-4 ºF- 140 ºF); Faixa de umidade Operacional: 10% — 80% (sem condensação)/ Não operacional: 5% — 90% (sem condensação); Altitude / Operacional: Máxima de 5.000 m (16.404 pés) Não operacional: Máxima de 12.192 m (40.000 pés); O que está incluído e 1 painel de monitor e 1 baseeriser do suporte e | guiadeinstalação rápida e —“Informações regulamentares, ambientais e de segurança Cabos incluídos e 1cabodealimentação e 1 cabodeDPpara DPde 1,8m e 1caboUSB3.2 Type-A para B (upstream) de 1º geração de 1,8m e 1 cabode HDMI para HDMI de 1,8 m Características físicas Altura com o suporte (compactado — estendido) / 364,00 mm — 496,53 mm Largura com o suporte: 538,64 mm Profundidade com o suporte: 181,75 mm Altura sem o suporte: 314,23 mm Largura sem o suporte: 538,64 mm Profundidade sem o suporte: 50,03 mm Peso (somente painel — para montagem VESA): 3,12 kg Peso (com a embalagem): 6,78 kg Garantia Três anos de Garantia Limitada de Hardware com Serviço de Troca Avançada e Troca de Painel Premium</t>
-  </si>
-  <si>
-    <t>12º Geração Intel® Core™ i5-12º geração ou superior.; Sistema operacional Windows 11 Pro, português — Brasil; Placa de vídeo Intel® UHD com memória gráfica compartilhada; Tela Full HD de 15.6" (1920 x 1080), 120 Hz, WVA; Memória 8GB DDR4 (1x8GB) 2666MT/s; Expansível até 16GB (2 slots so DIMM); Armazenamento SSD de 512GB PCle NVMe M.2; Cor Carbon Black - Preto Carbono; Microsoft Office Nenhuma licença do Microsoft Office incluída (somente a oferta de avaliação de 30 dias); Software de Segurança McAfee® Business Protection - Avaliação de 30 dias; Assistência técnica 1 ano de garantia básica via correios; Complete Care Sem Complete Care; Teclado Teclado não retroiluminado em português (Brasil); Portas 2 portas USB 3.2 Type-A de 1º geração 1 porta USB 2.0 1 tomada de alimentação l porta para headset (combinação de fones de ouvido e microfone) 1 porta HDMI 1.4 (a resolução máxima compatível com HDMI é de 1920 x 1080 a 60 Hz. Sem saída 4K/2K); Slots 1 slot M.2 2230 para placa de WiFi e Bluetooth 1 slot M.2 2230/2280 para unidade de estado sólido 1 slot de cartão SD; Dimensões Altura: 1,609 cm a 2,11 cm Largura: 35,85 cm Profundidade: 23,49 cm Peso: 1,65 kg; Câmera Câmera HD de 720p a 30 FPS com microfone único integrado; Áudio e alto-falantes Alto-falantes estéreo, 2 W x 2 =4 W no total; Chassi Preto Carbono sem leitor de impressão digital; Wireless 802.11ac 1x1 Wi-Fi, placa de rede wireless com Bluetooth®; Bateria principal Bateria de 3 células e 41 Wh (integrada); Energia Adaptador CA 65 Watts (Bivolt); Apoio para as mãos Palmrest; Regulamentação ENERGY STAR; Garantia garantia on-site do fabricante do equipamento. período de garantia de 12 (doze) meses.; Item Adicional Teclado e Mouse sem fio original do mesmo fabricante do Notebook.</t>
-  </si>
-  <si>
-    <t>Visor: Ecrã tátil a cores Lexmark e-Task de 4,3 polegadas (10,9 cm); Velocidade de Impressão Mono: 46 ppm (páginas por minuto); Tempo para Primeira Página mono: 6 segundos; Resolução de Impressão mono: Qualidade de imagem 1.200 x 1.200 ppp, Qualidade de imagem 2.400, 600 x 600 ppp Qualidade de imagem 1.200; Memoória: standard: 2.048 MB / máximo: 2.048 MB; Disco Rígido: Incluído na configuração; Volume de Páginas Mensal Recomendado 2.000 - 15.000 Páginas; Ciclo de Vida Mensal Máximo Até: 120.000 Páginas ao mês; Velocidade de Cópia Até: mono: 44 cpm(A4) / mono: 46 cpm (carta); Tempo para a primeira cópia mono: mono: 6 segundos; Tipo de Scanner / Digitalização Scanner de base plana com ADF / ADF: DADF (duplex de passagem única); A4/Ltr Simplex velocidade digitalização: Até: mono: 42 / 45 Lados por minuto / cor: 22 / 24 Lados por minuto; A4/Ltr Duplex velocidade digitalização Até: mono: 84 / 90 Lados por minuto / cor: 44 / 48 Lados por minuto; Capacidade de alimentação: Cópia/Fax/ Digitalização Até: ADF: 50 páginas 20 Ib ou 75 gsm bond; Envio de fax: Velocidade do Modem ITU T.30, V.34 Half-Duplex, 33.6 Kbps; Capacidades dos toners até: Toner para 6.000 páginas, Toner de elevada capacidade para 15.000 páginas, Toner de alto rendimento de 20.000 páginas, Toner de capacidade ultra para 25.000 páginas; Capacidade Estimada da unidade de processamento de imagens até: 60.000 páginas, baseada na média de 3 páginas tamanho carta/A4 por trabalho de impressão com uma cobertura de aproximadamente 5%; Consumíveis entregues com o equipamento Toner Starter com Programa de Retorno para 6.000 páginas; Manuseamento de papel incluído Entrada 550 folhas, Alimentador multifuncional de 100 folhas, Duplex integrado, Tabuleiro de saída para 250 folhas; Manuseamento de papel opcional Bandeja de entrada de 250 folhas, Bandeja com trava para 550 folhas, Bandeja para 550 folhas; Capacidade de alimentação de papel Até: standard: 350 páginas 20 Ib ou 75 gsm bond / máximo: 2.000 páginas 20 Ib ou 75 gsm bond 350 páginas 20 Ib ou 75 gsm bond; Capacidade saída de papel Até: standard: 150 páginas 20 Ib ou 75 gsm bond / máximo: 150 páginas 20 Ib ou 75 gsm bond; Tipos de papel suportados Cartolina, Envelopes, Papel etiquetas, Papel normal, Transparências, Refer to the Paper &amp; Specialty Media Guide; Tamanhos de papel suportados Etiquetas de Papel, Cartolina, Papel comum, Transparências, Envelopes, Consulte o Guia de Papel e Mídia Especializada; Conectividade standard Um Card Slot interno, Porta USB 2.0 com certificação de alta velocidade (Tipo B), Gigabit Ethernet (10/100/1000), Porta USB 2.0 frontal com certificação de alta velocidade (Tipo A), Porta USB traseira de alta velocidade certificada com a especificação USB 2.0(Tipo A); Conectividade rede opcional / Conectividade opcional Opção Marknet N8372 WiFi / RS-232C série interno, 1284-B paralelo bidirecional interno; - Cada impressora deve conter 2 Kits de suprimento, sendo (Cartucho de toner inicial e Unidade de Imagem original do fabricante).; Garantia do produto 01 ano de garantia — Serviço Onsite.</t>
-  </si>
-  <si>
-    <t>Método de impressão por transferência térmica e impressão térmica direta; Linguagens de programação ZPL e EPL; Um único indicador de status de LED; Um único botão de avançar/pausar; Conectividade por USB; OpenACCESS para fácil carregamento de mídia; Construção com estrutura de parede dupla; Qualificação de ENERGY STAR; Conectividade: USB; Etiquetas: Até 104mm de largura; Ribbons: Até 110mm de largura; até 74m de comprimento; Tecnologia de Impressão: Transferência Térmica; Resolução de Impressão: 203dpi; Velocidade de Impressão: 102mm/s; Memória RAM: 128 MB; Memória Flash: 256 MB; Ambiente de Operação: Temperatura: de 4,4 ºC a 41 ºC; Umidade: de 5% até 95% sem; Dimensões: 267 mm C x 197 mm L x 191 mm A; Garantia: 2 Anos do fabricante - Serviço Onsite.</t>
-  </si>
-  <si>
-    <t>Capacidade: 1,2KVA; Tensão Alimentação Entrada: 110/220V; Características Adicionais: ISO 9001, RS232 Opto Acoplada, Entrada Bateria Ext, Frequência: 60HZ; Tipo: Nobreak; Processador Risc; Potência Nominal: 1200VA; Nível Ruído: 40 a 1 MetroDB; Referência Fabricante: 1110005; Dimensões: 315x114x156 (Cxlxa)MM; Aplicação: Microcomputador; Tensão Saída: 110/220V; Modelo: Personal Plus 1200</t>
-  </si>
-  <si>
-    <t>Tipo Linha: IP Sem Fio; Protocolo Lan: 4 Portas Lan 10; Protocolo Wan: 1 Porta 10/100/1000mbps; Velocidade: 1.266 MBPS; Tensão Alimentação: 110/220V; Recurso Segurança: WPA - WPA2 - WPS; Características Adicionais: 4 Antenas Cobertura Até 200m, Tipo Arquitetura: Dual Band: Padrão Wifi 2,4ghz (Até 400mbps) E 5ghz</t>
-  </si>
-  <si>
-    <t>Tipo: IP; Funções Básicas: Rediscagem/Flash/Tom/Pulso/Pause/Mute; Características Adicionais: Com Fio, Porta RJ45 E RJ11; Alimentação: BivoltV</t>
-  </si>
-  <si>
-    <t>Tipo: Alcalina; Tamanho: Pequena; Modelo: AA; Aplicação: Equipamentos Eletrônicos; Amperagem: 1.200 MAH; Tensão: 1,2V</t>
-  </si>
-  <si>
-    <t>Tipo: Disco SSD; Capacidade: 500GB; Tamanho: 2,5POL; Velocidade: 550MB/S; Padrão: SATA 3.0</t>
-  </si>
-  <si>
-    <t>Capacidade Memória: 2TB.; Interface: Conexão USB 3.0; Aplicação: Armazenamento De Dados; Tipo: Hard Disk Externo</t>
-  </si>
-  <si>
-    <t>Capacidade Memória: 16MB; Interface: USB 3.0</t>
-  </si>
-  <si>
-    <t>Material Revestimento: PVC - Cloreto De Polivinila Anti-Chama; Material Condutor: Cobre Rígido; Bitola Condutor: 24AWG; Tipo Condutor: Flexível; Tipo Cabo: UTP De 4 Pares; Cor: Azul; Padrão Cabeamento: T568-A; Características Adicionais: Line Cord Com RJ-45 Nas PontasCapas Montadas Ou I; Categoria: 5e; Comprimento: 10M; Conector: RJ-45</t>
-  </si>
-  <si>
-    <t>Aplicação: Sistema De Áudio E Vídeo; Tipo Cabo: HDMI Padrão</t>
-  </si>
-  <si>
-    <t>Tipo: Régua; Comprimento: 10M; Componentes: 5 Tomadas, 2pT; Tensão Nominal: 110/220V; Corrente Nominal: 10A</t>
-  </si>
-  <si>
-    <t>Comprimento: 5M; Componentes: 4 Tomadas, Tripolar; Seção Nominal: 1,5MM2</t>
-  </si>
-  <si>
-    <t>Potência: 10W; Voltagem: USB 5v Ou DC 5v.V; Aplicação: Sala De Aula; Características Adicionais: Especificações Alto Falante: 2x2.Conexão: USB E P2, Resposta Frequência: 200</t>
+    <t>IA FALHOU EM RETORNAR Nº</t>
   </si>
   <si>
     <t>Unidade</t>
@@ -621,13 +573,13 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -638,19 +590,19 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -661,19 +613,19 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -684,19 +636,19 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -707,19 +659,19 @@
         <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -730,19 +682,19 @@
         <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D7">
         <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -753,19 +705,19 @@
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -776,19 +728,19 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -799,19 +751,19 @@
         <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -822,19 +774,19 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -845,19 +797,19 @@
         <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -868,19 +820,19 @@
         <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -891,19 +843,19 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -914,19 +866,19 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -937,19 +889,19 @@
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -960,19 +912,19 @@
         <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -983,19 +935,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1006,19 +958,19 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1029,19 +981,19 @@
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1052,19 +1004,19 @@
         <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1075,19 +1027,19 @@
         <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
